--- a/GYM_TPRM_RESERVAS.xlsx
+++ b/GYM_TPRM_RESERVAS.xlsx
@@ -28,10 +28,10 @@
     <t>L</t>
   </si>
   <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>15:15</t>
+    <t>CICLO INDOOR</t>
+  </si>
+  <si>
+    <t>19:00</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GYM_TPRM_RESERVAS.xlsx
+++ b/GYM_TPRM_RESERVAS.xlsx
@@ -25,13 +25,13 @@
     <t>HORA_INICIO</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>CICLO INDOOR</t>
-  </si>
-  <si>
-    <t>19:00</t>
+    <t>FIT BOX</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,13 +451,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
